--- a/data/StorageCondExp.xlsx
+++ b/data/StorageCondExp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescaspencer/Desktop/UofUtah/Spring 2022/Biostatistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0133977.AD\Documents\GitHub\OxygenPretreatment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0619CF4-C025-DF4D-8C14-124A63A4348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8477F85-4390-4BBC-9FE5-046C7331BE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15860" xr2:uid="{82F4042F-E644-2D4B-AC77-03A8BE685DD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82F4042F-E644-2D4B-AC77-03A8BE685DD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="72">
   <si>
     <t>SLC20-S1-A-1</t>
   </si>
@@ -236,6 +236,21 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>Tooth</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -291,19 +306,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,2387 +634,2527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD74EC7-56E4-C548-8FC7-9A43517EF378}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="4">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3">
         <v>-9.9986414400000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="3">
         <v>-8.8908364604987078</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="4">
         <v>3.7753316750738022</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="4">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3">
         <v>-9.9959930799999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="3">
         <v>-8.8060796077700925</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="4">
         <v>3.3460066771865344</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="4">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3">
         <v>-10.049571439999999</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="3">
         <v>-8.7868933550380763</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="4">
         <v>4.0869949782120401</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="4">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3">
         <v>-12.093901639999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="F5" s="3">
         <v>-7.3312682027056493</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="4">
         <v>4.4091180158859951</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3">
         <v>-12.061713879999999</v>
       </c>
-      <c r="D6" s="4">
+      <c r="F6" s="3">
         <v>-7.4413256084875297</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="4">
         <v>4.2701107996366687</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="4">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="3">
         <v>-12.113458759999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="F7" s="3">
         <v>-7.7974308927125477</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="4">
         <v>4.1362590600683014</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="4">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="3">
         <v>-8.3898645999999992</v>
       </c>
-      <c r="D8" s="4">
+      <c r="F8" s="3">
         <v>-6.5960762985654817</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="4">
         <v>4.2862350711754518</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3">
         <v>-8.4314234799999994</v>
       </c>
-      <c r="D9" s="4">
+      <c r="F9" s="3">
         <v>-6.5627639037121508</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="4">
         <v>4.2286793153258149</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3">
         <v>-8.2757813999999996</v>
       </c>
-      <c r="D10" s="4">
+      <c r="F10" s="3">
         <v>-6.6439365114248066</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="4">
         <v>4.4414343880305918</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3">
         <v>-10.838171559999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="F11" s="3">
         <v>-10.151436516378601</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G11" s="4">
         <v>4.6492757478135571</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="3">
         <v>-10.812502840000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="F12" s="3">
         <v>-10.147430595478568</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="4">
         <v>4.0808109228314304</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3">
         <v>-10.77277744</v>
       </c>
-      <c r="D13" s="4">
+      <c r="F13" s="3">
         <v>-9.9559897440419949</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="4">
         <v>4.3094306750329858</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3">
         <v>-9.1108296800000002</v>
       </c>
-      <c r="D14" s="4">
+      <c r="F14" s="3">
         <v>-9.38567311063243</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="4">
         <v>3.605409170931035</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3">
         <v>-9.1236640399999995</v>
       </c>
-      <c r="D15" s="4">
+      <c r="F15" s="3">
         <v>-9.3747095376426373</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="4">
         <v>4.1586186627256705</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3">
         <v>-9.1442397599999996</v>
       </c>
-      <c r="D16" s="4">
+      <c r="F16" s="3">
         <v>-9.2764590566191814</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="4">
         <v>4.0176948430433468</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3">
         <v>-11.2755584</v>
       </c>
-      <c r="D17" s="4">
+      <c r="F17" s="3">
         <v>-3.7198250922911025</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="4">
         <v>4.5250216694761702</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11.246018999999999</v>
       </c>
-      <c r="D18" s="4">
+      <c r="F18" s="3">
         <v>-3.7573542459868663</v>
       </c>
-      <c r="E18" s="5">
+      <c r="G18" s="4">
         <v>4.3666829637085955</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3">
         <v>-11.286559280000001</v>
       </c>
-      <c r="D19" s="4">
+      <c r="F19" s="3">
         <v>-3.380797681377127</v>
       </c>
-      <c r="E19" s="5">
+      <c r="G19" s="4">
         <v>4.1863851759533626</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9.8686680799999991</v>
       </c>
-      <c r="D20" s="4">
+      <c r="F20" s="3">
         <v>-8.9254138830047438</v>
       </c>
-      <c r="E20" s="5">
+      <c r="G20" s="4">
         <v>3.5174384361380833</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10.044478440000001</v>
       </c>
-      <c r="D21" s="4">
+      <c r="F21" s="3">
         <v>-9.3226325659413636</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="4">
         <v>3.3130230225156923</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3">
         <v>-9.9259133999999989</v>
       </c>
-      <c r="D22" s="4">
+      <c r="F22" s="3">
         <v>-9.3491981466473337</v>
       </c>
-      <c r="E22" s="5">
+      <c r="G22" s="4">
         <v>3.7547827394740891</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9.0403425599999991</v>
       </c>
-      <c r="D23" s="4">
+      <c r="F23" s="3">
         <v>-2.4834713997539262</v>
       </c>
-      <c r="E23" s="5">
+      <c r="G23" s="4">
         <v>4.3907066098093832</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8.9301300399999999</v>
       </c>
-      <c r="D24" s="4">
+      <c r="F24" s="3">
         <v>-2.4975975418753618</v>
       </c>
-      <c r="E24" s="5">
+      <c r="G24" s="4">
         <v>4.3419483317333993</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3">
         <v>-8.9610954799999991</v>
       </c>
-      <c r="D25" s="4">
+      <c r="F25" s="3">
         <v>-2.2009485573255732</v>
       </c>
-      <c r="E25" s="5">
+      <c r="G25" s="4">
         <v>4.5511513254976057</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10.771555119999999</v>
       </c>
-      <c r="D26" s="4">
+      <c r="F26" s="3">
         <v>-6.6355029937403032</v>
       </c>
-      <c r="E26" s="5">
+      <c r="G26" s="4">
         <v>4.2461315167522855</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10.83002276</v>
       </c>
-      <c r="D27" s="4">
+      <c r="F27" s="3">
         <v>-6.6131541718765234</v>
       </c>
-      <c r="E27" s="5">
+      <c r="G27" s="4">
         <v>3.7570123373940425</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="3">
         <v>-10.738959920000001</v>
       </c>
-      <c r="D28" s="4">
+      <c r="F28" s="3">
         <v>-6.2846686580680249</v>
       </c>
-      <c r="E28" s="5">
+      <c r="G28" s="4">
         <v>4.1780551047037626</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3">
         <v>-8.5332834799999997</v>
       </c>
-      <c r="D29" s="4">
+      <c r="F29" s="3">
         <v>-5.6593233217675802</v>
       </c>
-      <c r="E29" s="5">
+      <c r="G29" s="4">
         <v>4.9875164216765677</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3">
         <v>-8.5015031599999986</v>
       </c>
-      <c r="D30" s="4">
+      <c r="F30" s="3">
         <v>-5.6369744999039195</v>
       </c>
-      <c r="E30" s="5">
+      <c r="G30" s="4">
         <v>5.26586900764201</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="3">
         <v>-8.528394200000001</v>
       </c>
-      <c r="D31" s="4">
+      <c r="F31" s="3">
         <v>-5.5366156394591268</v>
       </c>
-      <c r="E31" s="5">
+      <c r="G31" s="4">
         <v>5.0277651667956054</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10.097211999999999</v>
       </c>
-      <c r="D32" s="4">
+      <c r="F32" s="3">
         <v>-9.098113558623524</v>
       </c>
-      <c r="E32" s="5">
+      <c r="G32" s="4">
         <v>2.5948956305438347</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10.168619440000001</v>
       </c>
-      <c r="D33" s="4">
+      <c r="F33" s="3">
         <v>-8.9595164631934665</v>
       </c>
-      <c r="E33" s="5">
+      <c r="G33" s="4">
         <v>3.5810281598269289</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="3">
         <v>-10.193439120000001</v>
       </c>
-      <c r="D34" s="4">
+      <c r="F34" s="3">
         <v>-8.9039498857630512</v>
       </c>
-      <c r="E34" s="5">
+      <c r="G34" s="4">
         <v>3.3141551341856625</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12.071597200000001</v>
       </c>
-      <c r="D35" s="4">
+      <c r="F35" s="3">
         <v>-7.474973381115384</v>
       </c>
-      <c r="E35" s="5">
+      <c r="G35" s="4">
         <v>2.9424510334695539</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="3">
         <v>-12.21583616</v>
       </c>
-      <c r="D36" s="4">
+      <c r="F36" s="3">
         <v>-7.3923686606441619</v>
       </c>
-      <c r="E36" s="5">
+      <c r="G36" s="4">
         <v>3.8445515325494082</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="3">
         <v>-12.05104976</v>
       </c>
-      <c r="D37" s="4">
+      <c r="F37" s="3">
         <v>-7.2420621331885995</v>
       </c>
-      <c r="E37" s="5">
+      <c r="G37" s="4">
         <v>3.5999278441253524</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="3">
         <v>-8.2566903200000006</v>
       </c>
-      <c r="D38" s="4">
+      <c r="F38" s="3">
         <v>-6.4381563999422431</v>
       </c>
-      <c r="E38" s="5">
+      <c r="G38" s="4">
         <v>3.378101803206949</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="3">
         <v>-8.1478499200000005</v>
       </c>
-      <c r="D39" s="4">
+      <c r="F39" s="3">
         <v>-6.6821383836023296</v>
       </c>
-      <c r="E39" s="5">
+      <c r="G39" s="4">
         <v>3.8698727961635164</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="3">
         <v>-8.5931800799999998</v>
       </c>
-      <c r="D40" s="4">
+      <c r="F40" s="3">
         <v>-6.2275995222460887</v>
       </c>
-      <c r="E40" s="5">
+      <c r="G40" s="4">
         <v>3.8782150176346764</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="3">
         <v>-10.7848392</v>
       </c>
-      <c r="D41" s="4">
+      <c r="F41" s="3">
         <v>-10.011449256617883</v>
       </c>
-      <c r="E41" s="5">
+      <c r="G41" s="4">
         <v>2.9647499158959563</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="3">
         <v>-10.45872488</v>
       </c>
-      <c r="D42" s="4">
+      <c r="F42" s="3">
         <v>-10.20071625790403</v>
       </c>
-      <c r="E42" s="5">
+      <c r="G42" s="4">
         <v>3.2654875196899824</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="B43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="3">
         <v>-10.868249600000002</v>
       </c>
-      <c r="D43" s="4">
+      <c r="F43" s="3">
         <v>-9.8847744919777227</v>
       </c>
-      <c r="E43" s="5">
+      <c r="G43" s="4">
         <v>3.325741030643703</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="3">
         <v>-9.2203856000000002</v>
       </c>
-      <c r="D44" s="4">
+      <c r="F44" s="3">
         <v>-9.4068167665703513</v>
       </c>
-      <c r="E44" s="5">
+      <c r="G44" s="4">
         <v>3.4058766105499525</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="3">
         <v>-9.0437996800000011</v>
       </c>
-      <c r="D45" s="4">
+      <c r="F45" s="3">
         <v>-9.4479062280418162</v>
       </c>
-      <c r="E45" s="5">
+      <c r="G45" s="4">
         <v>3.3922109006505661</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="3">
         <v>-9.2201821600000002</v>
       </c>
-      <c r="D46" s="4">
+      <c r="F46" s="3">
         <v>-9.2963223080017272</v>
       </c>
-      <c r="E46" s="5">
+      <c r="G46" s="4">
         <v>3.4393281141095744</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="3">
         <v>-11.226100560000003</v>
       </c>
-      <c r="D47" s="4">
+      <c r="F47" s="3">
         <v>-3.4262775842014266</v>
       </c>
-      <c r="E47" s="5">
+      <c r="G47" s="4">
         <v>3.5925193703130511</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="3">
         <v>-10.616390880000001</v>
       </c>
-      <c r="D48" s="4">
+      <c r="F48" s="3">
         <v>-3.9106222725319233</v>
       </c>
-      <c r="E48" s="5">
+      <c r="G48" s="4">
         <v>4.2852529392896876</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="3">
         <v>-11.301780240000001</v>
       </c>
-      <c r="D49" s="4">
+      <c r="F49" s="3">
         <v>-3.4450126754423804</v>
       </c>
-      <c r="E49" s="5">
+      <c r="G49" s="4">
         <v>3.9307531479499462</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="3">
         <v>-10.126914240000001</v>
       </c>
-      <c r="D50" s="4">
+      <c r="F50" s="3">
         <v>-9.2873805599095469</v>
       </c>
-      <c r="E50" s="5">
+      <c r="G50" s="4">
         <v>3.3973007439545335</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="3">
         <v>-9.9973229600000018</v>
       </c>
-      <c r="D51" s="4">
+      <c r="F51" s="3">
         <v>-9.214356283822827</v>
       </c>
-      <c r="E51" s="5">
+      <c r="G51" s="4">
         <v>2.984586342444953</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="B52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="3">
         <v>-9.8701729600000014</v>
       </c>
-      <c r="D52" s="4">
+      <c r="F52" s="3">
         <v>-9.6718757278764187</v>
       </c>
-      <c r="E52" s="5">
+      <c r="G52" s="4">
         <v>2.4497180710629758</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="3">
         <v>-8.9066811200000018</v>
       </c>
-      <c r="D53" s="4">
+      <c r="F53" s="3">
         <v>-1.9010708381799368</v>
       </c>
-      <c r="E53" s="5">
+      <c r="G53" s="4">
         <v>3.7533268312977035</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="3">
         <v>-8.7121924800000006</v>
       </c>
-      <c r="D54" s="4">
+      <c r="F54" s="3">
         <v>-2.4873940345148124</v>
       </c>
-      <c r="E54" s="5">
+      <c r="G54" s="4">
         <v>3.7675234577937178</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="4">
+      <c r="B55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="3">
         <v>-9.0901840000000007</v>
       </c>
-      <c r="D55" s="4">
+      <c r="F55" s="3">
         <v>-2.3217587960440689</v>
       </c>
-      <c r="E55" s="5">
+      <c r="G55" s="4">
         <v>4.0912233923799386</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="3">
         <v>-10.774260320000002</v>
       </c>
-      <c r="D56" s="4">
+      <c r="F56" s="3">
         <v>-6.378544745993854</v>
       </c>
-      <c r="E56" s="5">
+      <c r="G56" s="4">
         <v>3.5638932912700247</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="B57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="3">
         <v>-10.625952560000002</v>
       </c>
-      <c r="D57" s="4">
+      <c r="F57" s="3">
         <v>-6.8596959528627268</v>
       </c>
-      <c r="E57" s="5">
+      <c r="G57" s="4">
         <v>3.4268483908217373</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="3">
         <v>-10.267898160000001</v>
       </c>
-      <c r="D58" s="4">
+      <c r="F58" s="3">
         <v>-6.2708179713585528</v>
       </c>
-      <c r="E58" s="5">
+      <c r="G58" s="4">
         <v>4.52176672721182</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="3">
         <v>-8.4353106400000009</v>
       </c>
-      <c r="D59" s="4">
+      <c r="F59" s="3">
         <v>-5.5935870027524777</v>
       </c>
-      <c r="E59" s="5">
+      <c r="G59" s="4">
         <v>4.0274427775738912</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="3">
         <v>-8.2638107200000022</v>
       </c>
-      <c r="D60" s="4">
+      <c r="F60" s="3">
         <v>-5.7209004636849627</v>
       </c>
-      <c r="E60" s="5">
+      <c r="G60" s="4">
         <v>4.3796087298142794</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="3">
         <v>-8.6263408000000013</v>
       </c>
-      <c r="D61" s="4">
+      <c r="F61" s="3">
         <v>-5.4162423322561084</v>
       </c>
-      <c r="E61" s="5">
+      <c r="G61" s="4">
         <v>4.509454792736121</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="3">
         <v>-9.9923261199999995</v>
       </c>
-      <c r="D62" s="4">
+      <c r="F62" s="3">
         <v>-9.1763110341165461</v>
       </c>
-      <c r="E62" s="5">
+      <c r="G62" s="4">
         <v>3.6579211017427014</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="3">
         <v>-10.0165688</v>
       </c>
-      <c r="D63" s="4">
+      <c r="F63" s="3">
         <v>-9.0278811228706317</v>
       </c>
-      <c r="E63" s="5">
+      <c r="G63" s="4">
         <v>3.1589042950675159</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="3">
         <v>-9.8336282399999995</v>
       </c>
-      <c r="D64" s="4">
+      <c r="F64" s="3">
         <v>-9.10104188878298</v>
       </c>
-      <c r="E64" s="5">
+      <c r="G64" s="4">
         <v>3.2598866485832274</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="B65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="3">
         <v>-11.986744919999998</v>
       </c>
-      <c r="D65" s="4">
+      <c r="F65" s="3">
         <v>-6.9810663808597226</v>
       </c>
-      <c r="E65" s="5">
+      <c r="G65" s="4">
         <v>4.1612660537570436</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="4">
+      <c r="B66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="3">
         <v>-11.970243599999998</v>
       </c>
-      <c r="D66" s="4">
+      <c r="F66" s="3">
         <v>-6.6679720368253665</v>
       </c>
-      <c r="E66" s="5">
+      <c r="G66" s="4">
         <v>4.1561752729883672</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="4">
+      <c r="B67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="3">
         <v>-12.047657200000002</v>
       </c>
-      <c r="D67" s="4">
+      <c r="F67" s="3">
         <v>-6.4111714233344728</v>
       </c>
-      <c r="E67" s="5">
+      <c r="G67" s="4">
         <v>3.534901118811983</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="B68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="3">
         <v>-8.3884385599999991</v>
       </c>
-      <c r="D68" s="4">
+      <c r="F68" s="3">
         <v>-5.4421602413936672</v>
       </c>
-      <c r="E68" s="5">
+      <c r="G68" s="4">
         <v>4.4146901808344827</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="4">
+      <c r="B69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="3">
         <v>-8.3554359199999997</v>
       </c>
-      <c r="D69" s="4">
+      <c r="F69" s="3">
         <v>-5.5191160902640117</v>
       </c>
-      <c r="E69" s="5">
+      <c r="G69" s="4">
         <v>4.7161463734515161</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="4">
+      <c r="B70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" s="3">
         <v>-8.3898645999999992</v>
       </c>
-      <c r="D70" s="4">
+      <c r="F70" s="3">
         <v>-5.3700536651918664</v>
       </c>
-      <c r="E70" s="5">
+      <c r="G70" s="4">
         <v>4.4450651084838322</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="4">
+      <c r="B71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="3">
         <v>-10.57231696</v>
       </c>
-      <c r="D71" s="4">
+      <c r="F71" s="3">
         <v>-9.9496646057787093</v>
       </c>
-      <c r="E71" s="5">
+      <c r="G71" s="4">
         <v>3.9779579445472573</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C72" s="4">
+      <c r="B72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10.618765120000001</v>
       </c>
-      <c r="D72" s="4">
+      <c r="F72" s="3">
         <v>-9.899274337614214</v>
       </c>
-      <c r="E72" s="5">
+      <c r="G72" s="4">
         <v>4.0060334771454551</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="B73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="3">
         <v>-10.559075160000001</v>
       </c>
-      <c r="D73" s="4">
+      <c r="F73" s="3">
         <v>-9.8265352475860617</v>
       </c>
-      <c r="E73" s="5">
+      <c r="G73" s="4">
         <v>5.0131985642304118</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="B74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="3">
         <v>-8.968836839999998</v>
       </c>
-      <c r="D74" s="4">
+      <c r="F74" s="3">
         <v>-8.0401053640818834</v>
       </c>
-      <c r="E74" s="5">
+      <c r="G74" s="4">
         <v>4.4806823096144335</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="4">
+      <c r="B75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="3">
         <v>-9.0283230799999998</v>
       </c>
-      <c r="D75" s="4">
+      <c r="F75" s="3">
         <v>-8.1493194180952528</v>
       </c>
-      <c r="E75" s="5">
+      <c r="G75" s="4">
         <v>4.4061616117527995</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="B76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8.9250370399999994</v>
       </c>
-      <c r="D76" s="4">
+      <c r="F76" s="3">
         <v>-7.8750192554091232</v>
       </c>
-      <c r="E76" s="5">
+      <c r="G76" s="4">
         <v>4.3925533289266498</v>
       </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="4">
+      <c r="B77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="3">
         <v>-11.386382079999999</v>
       </c>
-      <c r="D77" s="4">
+      <c r="F77" s="3">
         <v>-3.7409088865021771</v>
       </c>
-      <c r="E77" s="5">
+      <c r="G77" s="4">
         <v>3.1156402611014986</v>
       </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="B78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="3">
         <v>-11.510651279999999</v>
       </c>
-      <c r="D78" s="4">
+      <c r="F78" s="3">
         <v>-3.7130782781436218</v>
       </c>
-      <c r="E78" s="5">
+      <c r="G78" s="4">
         <v>3.8988683799461312</v>
       </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="4">
+      <c r="B79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="3">
         <v>-11.24255576</v>
       </c>
-      <c r="D79" s="4">
+      <c r="F79" s="3">
         <v>-3.3852252781614758</v>
       </c>
-      <c r="E79" s="5">
+      <c r="G79" s="4">
         <v>4.3036132502440818</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="B80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="3">
         <v>-9.8366840399999997</v>
       </c>
-      <c r="D80" s="4">
+      <c r="F80" s="3">
         <v>-9.531362128630894</v>
       </c>
-      <c r="E80" s="5">
+      <c r="G80" s="4">
         <v>3.3507399297716143</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="4">
+      <c r="B81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10.009031159999999</v>
       </c>
-      <c r="D81" s="4">
+      <c r="F81" s="3">
         <v>-9.833071223791384</v>
       </c>
-      <c r="E81" s="5">
+      <c r="G81" s="4">
         <v>3.564435741081732</v>
       </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="4">
+      <c r="B82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="3">
         <v>-9.8458514399999988</v>
       </c>
-      <c r="D82" s="4">
+      <c r="F82" s="3">
         <v>-9.7375616360152559</v>
       </c>
-      <c r="E82" s="5">
+      <c r="G82" s="4">
         <v>3.5732095354991555</v>
       </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="4">
+      <c r="B83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="3">
         <v>-9.0140626799999986</v>
       </c>
-      <c r="D83" s="4">
+      <c r="F83" s="3">
         <v>-2.1349562814449006</v>
       </c>
-      <c r="E83" s="5">
+      <c r="G83" s="4">
         <v>2.6999706834938646</v>
       </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C84" s="4">
+      <c r="B84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="3">
         <v>-9.0244523999999995</v>
       </c>
-      <c r="D84" s="4">
+      <c r="F84" s="3">
         <v>-2.1623652139192617</v>
       </c>
-      <c r="E84" s="5">
+      <c r="G84" s="4">
         <v>5.0093882596858252</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="4">
+      <c r="B85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="3">
         <v>-8.8981460000000006</v>
       </c>
-      <c r="D85" s="4">
+      <c r="F85" s="3">
         <v>-2.3472700891503906</v>
       </c>
-      <c r="E85" s="5">
+      <c r="G85" s="4">
         <v>4.9067442909293675</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="B86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="3">
         <v>-11.051466399999999</v>
       </c>
-      <c r="D86" s="4">
+      <c r="F86" s="3">
         <v>-6.3824974632074074</v>
       </c>
-      <c r="E86" s="5">
+      <c r="G86" s="4">
         <v>5.0014643652928381</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="4">
+      <c r="B87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="3">
         <v>-10.970385839999999</v>
       </c>
-      <c r="D87" s="4">
+      <c r="F87" s="3">
         <v>-6.3009031796105557</v>
       </c>
-      <c r="E87" s="5">
+      <c r="G87" s="4">
         <v>4.7539674799798561</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="4">
+      <c r="B88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="3">
         <v>-11.006444279999998</v>
       </c>
-      <c r="D88" s="4">
+      <c r="F88" s="3">
         <v>-6.0116335230346003</v>
       </c>
-      <c r="E88" s="5">
+      <c r="G88" s="4">
         <v>4.1923435046271411</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89" s="4">
+      <c r="B89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8.7015561999999989</v>
       </c>
-      <c r="D89" s="4">
+      <c r="F89" s="3">
         <v>-5.9861221320392985</v>
       </c>
-      <c r="E89" s="5">
+      <c r="G89" s="4">
         <v>4.8226049517544123</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="B90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="3">
         <v>-8.6029557199999989</v>
       </c>
-      <c r="D90" s="4">
+      <c r="F90" s="3">
         <v>-6.0734090400732033</v>
       </c>
-      <c r="E90" s="5">
+      <c r="G90" s="4">
         <v>4.7522088321901892</v>
       </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="4">
+      <c r="B91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8.5726014399999997</v>
       </c>
-      <c r="D91" s="4">
+      <c r="F91" s="3">
         <v>-5.7972113359080151</v>
       </c>
-      <c r="E91" s="5">
+      <c r="G91" s="4">
         <v>4.6497808934756666</v>
       </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="B92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E92" s="3">
         <v>-9.8654938400000027</v>
       </c>
-      <c r="D92" s="4">
+      <c r="F92" s="3">
         <v>-9.0742688970440923</v>
       </c>
-      <c r="E92" s="5">
+      <c r="G92" s="4">
         <v>2.8571392241257687</v>
       </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" s="4">
+      <c r="B93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" s="3">
         <v>-9.7479055199999998</v>
       </c>
-      <c r="D93" s="4">
+      <c r="F93" s="3">
         <v>-9.6714499303482455</v>
       </c>
-      <c r="E93" s="5">
+      <c r="G93" s="4">
         <v>2.6881258175060334</v>
       </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" s="4">
+      <c r="B94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9.717796400000001</v>
       </c>
-      <c r="D94" s="4">
+      <c r="F94" s="3">
         <v>-8.7585400298820595</v>
       </c>
-      <c r="E94" s="5">
+      <c r="G94" s="4">
         <v>3.5502941928905138</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C95" s="4">
+      <c r="B95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="3">
         <v>-11.963977440000001</v>
       </c>
-      <c r="D95" s="4">
+      <c r="F95" s="3">
         <v>-6.8245676567859688</v>
       </c>
-      <c r="E95" s="5">
+      <c r="G95" s="4">
         <v>3.4888834160137097</v>
       </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="4">
+      <c r="B96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11.999782880000001</v>
       </c>
-      <c r="D96" s="4">
+      <c r="F96" s="3">
         <v>-6.8965274390521882</v>
       </c>
-      <c r="E96" s="5">
+      <c r="G96" s="4">
         <v>3.984443446926845</v>
       </c>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C97" s="4">
+      <c r="B97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E97" s="3">
         <v>-12.023178480000004</v>
       </c>
-      <c r="D97" s="4">
+      <c r="F97" s="3">
         <v>-7.0278859765027688</v>
       </c>
-      <c r="E97" s="5">
+      <c r="G97" s="4">
         <v>4.1051685220083289</v>
       </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C98" s="4">
+      <c r="B98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E98" s="3">
         <v>-8.1494774400000001</v>
       </c>
-      <c r="D98" s="4">
+      <c r="F98" s="3">
         <v>-5.6427666172598903</v>
       </c>
-      <c r="E98" s="5">
+      <c r="G98" s="4">
         <v>4.2451824611543172</v>
       </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" s="4">
+      <c r="B99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E99" s="3">
         <v>-8.2756102400000007</v>
       </c>
-      <c r="D99" s="4">
+      <c r="F99" s="3">
         <v>-5.6534115554648947</v>
       </c>
-      <c r="E99" s="5">
+      <c r="G99" s="4">
         <v>4.4470903510334834</v>
       </c>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="4">
+      <c r="B100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8.6045727200000002</v>
       </c>
-      <c r="D100" s="4">
+      <c r="F100" s="3">
         <v>-5.2616778295185442</v>
       </c>
-      <c r="E100" s="5">
+      <c r="G100" s="4">
         <v>3.9491200876043244</v>
       </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C101" s="4">
+      <c r="B101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="3">
         <v>-10.656061680000002</v>
       </c>
-      <c r="D101" s="4">
+      <c r="F101" s="3">
         <v>-10.006552585043558</v>
       </c>
-      <c r="E101" s="5">
+      <c r="G101" s="4">
         <v>3.5628903127769278</v>
       </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="4">
+      <c r="B102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10.406237360000002</v>
       </c>
-      <c r="D102" s="4">
+      <c r="F102" s="3">
         <v>-10.34846800019017</v>
       </c>
-      <c r="E102" s="5">
+      <c r="G102" s="4">
         <v>4.0035066340133385</v>
       </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C103" s="4">
+      <c r="B103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="3">
         <v>-10.707532</v>
       </c>
-      <c r="D103" s="4">
+      <c r="F103" s="3">
         <v>-10.084473532704724</v>
       </c>
-      <c r="E103" s="5">
+      <c r="G103" s="4">
         <v>3.0635489993176144</v>
       </c>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" s="4">
+      <c r="B104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E104" s="3">
         <v>-8.6348852799999989</v>
       </c>
-      <c r="D104" s="4">
+      <c r="F104" s="3">
         <v>-8.2339574751363287</v>
       </c>
-      <c r="E104" s="5">
+      <c r="G104" s="4">
         <v>3.706167073097121</v>
       </c>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" s="4">
+      <c r="B105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E105" s="3">
         <v>-8.8100471200000001</v>
       </c>
-      <c r="D105" s="4">
+      <c r="F105" s="3">
         <v>-8.4773007625040933</v>
       </c>
-      <c r="E105" s="5">
+      <c r="G105" s="4">
         <v>4.1154526839320082</v>
       </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C106" s="4">
+      <c r="B106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="3">
         <v>-9.1190724799999998</v>
       </c>
-      <c r="D106" s="4">
+      <c r="F106" s="3">
         <v>-8.2216093468186244</v>
       </c>
-      <c r="E106" s="5">
+      <c r="G106" s="4">
         <v>4.318966337790342</v>
       </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C107" s="4">
+      <c r="B107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" s="3">
         <v>-11.484469360000002</v>
       </c>
-      <c r="D107" s="4">
+      <c r="F107" s="3">
         <v>-3.4809925665754902</v>
       </c>
-      <c r="E107" s="5">
+      <c r="G107" s="4">
         <v>3.5917820147141772</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="4">
+      <c r="B108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E108" s="3">
         <v>-11.242782640000001</v>
       </c>
-      <c r="D108" s="4">
+      <c r="F108" s="3">
         <v>-3.9246735909625778</v>
       </c>
-      <c r="E108" s="5">
+      <c r="G108" s="4">
         <v>3.249559024617966</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C109" s="4">
+      <c r="B109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E109" s="3">
         <v>-11.682009600000001</v>
       </c>
-      <c r="D109" s="4">
+      <c r="F109" s="3">
         <v>-3.7056007627024199</v>
       </c>
-      <c r="E109" s="5">
+      <c r="G109" s="4">
         <v>3.4954039969695754</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C110" s="4">
+      <c r="B110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" s="3">
         <v>-10.085005600000002</v>
       </c>
-      <c r="D110" s="4">
+      <c r="F110" s="3">
         <v>-9.6857141475430488</v>
       </c>
-      <c r="E110" s="5">
+      <c r="G110" s="4">
         <v>3.4918352188954005</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C111" s="4">
+      <c r="B111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E111" s="3">
         <v>-9.8555252800000019</v>
       </c>
-      <c r="D111" s="4">
+      <c r="F111" s="3">
         <v>-9.6667661575379462</v>
       </c>
-      <c r="E111" s="5">
+      <c r="G111" s="4">
         <v>3.2465116410532819</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C112" s="4">
+      <c r="B112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E112" s="3">
         <v>-9.9845062400000018</v>
       </c>
-      <c r="D112" s="4">
+      <c r="F112" s="3">
         <v>-9.9641857309874453</v>
       </c>
-      <c r="E112" s="5">
+      <c r="G112" s="4">
         <v>3.236273458035257</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" s="4">
+      <c r="B113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" s="3">
         <v>-8.8210328800000006</v>
       </c>
-      <c r="D113" s="4">
+      <c r="F113" s="3">
         <v>-2.4699363358586295</v>
       </c>
-      <c r="E113" s="5">
+      <c r="G113" s="4">
         <v>4.7312130810437738</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" s="4">
+      <c r="B114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E114" s="3">
         <v>-8.9555067200000007</v>
       </c>
-      <c r="D114" s="4">
+      <c r="F114" s="3">
         <v>-2.3519904205465005</v>
       </c>
-      <c r="E114" s="5">
+      <c r="G114" s="4">
         <v>3.2614379974943111</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C115" s="4">
+      <c r="B115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E115" s="3">
         <v>-8.8224569600000002</v>
       </c>
-      <c r="D115" s="4">
+      <c r="F115" s="3">
         <v>-2.5557345377913538</v>
       </c>
-      <c r="E115" s="5">
+      <c r="G115" s="4">
         <v>3.5095765420224092</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C116" s="4">
+      <c r="B116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E116" s="3">
         <v>-10.788297680000001</v>
       </c>
-      <c r="D116" s="4">
+      <c r="F116" s="3">
         <v>-6.5311931598544435</v>
       </c>
-      <c r="E116" s="5">
+      <c r="G116" s="4">
         <v>3.6943090065013355</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C117" s="4">
+      <c r="B117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E117" s="3">
         <v>-10.842819600000002</v>
       </c>
-      <c r="D117" s="4">
+      <c r="F117" s="3">
         <v>-6.6214622358334401</v>
       </c>
-      <c r="E117" s="5">
+      <c r="G117" s="4">
         <v>3.7404038561053654</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C118" s="4">
+      <c r="B118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E118" s="3">
         <v>-11.038732320000001</v>
       </c>
-      <c r="D118" s="4">
+      <c r="F118" s="3">
         <v>-6.4864844193931814</v>
       </c>
-      <c r="E118" s="5">
+      <c r="G118" s="4">
         <v>3.5716625355814817</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C119" s="4">
+      <c r="B119" s="1"/>
+      <c r="D119" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="3">
         <v>-8.6379368799999998</v>
       </c>
-      <c r="D119" s="4">
+      <c r="F119" s="3">
         <v>-5.7404871499822674</v>
       </c>
-      <c r="E119" s="5">
+      <c r="G119" s="4">
         <v>4.1403500017563353</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C120" s="4">
+      <c r="B120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E120" s="3">
         <v>-8.3793646400000021</v>
       </c>
-      <c r="D120" s="4">
+      <c r="F120" s="3">
         <v>-6.0170426445498135</v>
       </c>
-      <c r="E120" s="5">
+      <c r="G120" s="4">
         <v>4.4029632947152386</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C121" s="4">
+      <c r="B121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E121" s="3">
         <v>-8.8025198400000004</v>
       </c>
-      <c r="D121" s="4">
+      <c r="F121" s="3">
         <v>-5.896116146540332</v>
       </c>
-      <c r="E121" s="5">
+      <c r="G121" s="4">
         <v>4.3385425119618652</v>
       </c>
     </row>
